--- a/Assets/Resources/ExcelData/ShopItemData.xlsx
+++ b/Assets/Resources/ExcelData/ShopItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="-160" windowWidth="24820" windowHeight="19380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ManSkinData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="71">
   <si>
     <t>ShopNumber</t>
   </si>
@@ -169,6 +169,100 @@
   <si>
     <t>lake</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
   </si>
 </sst>
 </file>
@@ -256,14 +350,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -598,7 +692,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -639,8 +733,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="7">
-        <v>1</v>
+      <c r="A2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -651,7 +745,7 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>100</v>
       </c>
       <c r="F2" t="s">
@@ -660,13 +754,13 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="10" t="b">
+      <c r="H2" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
-        <v>2</v>
+      <c r="A3" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -677,7 +771,7 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>200</v>
       </c>
       <c r="F3" t="s">
@@ -686,13 +780,13 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="10" t="b">
+      <c r="H3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="A4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -703,7 +797,7 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>300</v>
       </c>
       <c r="F4" t="s">
@@ -712,13 +806,13 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10" t="b">
+      <c r="H4" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
-        <v>4</v>
+      <c r="A5" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -729,7 +823,7 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>300</v>
       </c>
       <c r="F5" t="s">
@@ -738,13 +832,13 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="10" t="b">
+      <c r="H5" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
-        <v>5</v>
+      <c r="A6" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -755,7 +849,7 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>450</v>
       </c>
       <c r="F6" t="s">
@@ -764,13 +858,13 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="10" t="b">
+      <c r="H6" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="A7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -781,7 +875,7 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>600</v>
       </c>
       <c r="F7" t="s">
@@ -790,13 +884,13 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="10" t="b">
+      <c r="H7" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>7</v>
+      <c r="A8" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -807,7 +901,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>750</v>
       </c>
       <c r="F8" t="s">
@@ -816,13 +910,13 @@
       <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="10" t="b">
+      <c r="H8" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
-        <v>8</v>
+      <c r="A9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -833,7 +927,7 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>900</v>
       </c>
       <c r="F9" t="s">
@@ -842,13 +936,13 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="b">
+      <c r="H9" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="A10" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -859,7 +953,7 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1050</v>
       </c>
       <c r="F10" t="s">
@@ -868,13 +962,13 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="10" t="b">
+      <c r="H10" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
-        <v>10</v>
+      <c r="A11" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -885,7 +979,7 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1200</v>
       </c>
       <c r="F11" t="s">
@@ -894,7 +988,7 @@
       <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="10" t="b">
+      <c r="H11" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -914,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -956,16 +1050,16 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="7">
         <v>1111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E2">
@@ -982,16 +1076,16 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7">
         <v>1112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E3">
@@ -1008,16 +1102,16 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7">
         <v>1113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E4">
@@ -1034,16 +1128,16 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7">
         <v>1114</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E5">
@@ -1060,16 +1154,16 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="7">
         <v>1115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E6">
@@ -1086,16 +1180,16 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="7">
         <v>1116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7">
@@ -1112,16 +1206,16 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7">
         <v>1117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
@@ -1138,16 +1232,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="7">
         <v>1118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9">
@@ -1164,16 +1258,16 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="7">
         <v>1119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10">
@@ -1190,16 +1284,16 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7">
         <v>1120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E11">
@@ -1216,16 +1310,16 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7">
         <v>1121</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E12">
@@ -1242,16 +1336,16 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7">
         <v>1122</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13">
@@ -1268,16 +1362,16 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="7">
         <v>1123</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E14">
@@ -1294,16 +1388,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7">
         <v>1124</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15">
@@ -1335,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1377,25 +1471,25 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="1">
+        <v>201</v>
+      </c>
+      <c r="B2" s="7">
         <v>1111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H2" t="b">
@@ -1403,25 +1497,25 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7">
         <v>1112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H3" t="b">
@@ -1429,25 +1523,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7">
         <v>1113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="b">
@@ -1455,25 +1549,25 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7">
         <v>1114</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="b">
@@ -1481,25 +1575,25 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7">
         <v>1115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H6" t="b">
@@ -1507,25 +1601,25 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7">
         <v>1116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="b">
@@ -1533,25 +1627,25 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="7">
         <v>1117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="b">

--- a/Assets/Resources/ExcelData/ShopItemData.xlsx
+++ b/Assets/Resources/ExcelData/ShopItemData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
   <si>
     <t>ShopNumber</t>
   </si>
@@ -38,22 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
     <t>qqqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,21 +95,6 @@
   <si>
     <t>IsOpen</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
   </si>
   <si>
     <t>Shop_mancolor</t>
@@ -334,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -357,6 +326,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +664,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -708,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -720,39 +692,39 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H2" s="9" t="b">
         <v>1</v>
@@ -760,25 +732,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" s="9" t="b">
         <v>1</v>
@@ -786,25 +758,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9" t="b">
         <v>1</v>
@@ -812,25 +784,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7">
         <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H5" s="9" t="b">
         <v>1</v>
@@ -838,25 +810,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7">
         <v>450</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H6" s="9" t="b">
         <v>1</v>
@@ -864,25 +836,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10006</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7">
         <v>600</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H7" s="9" t="b">
         <v>1</v>
@@ -890,25 +862,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10007</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7">
         <v>750</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H8" s="9" t="b">
         <v>1</v>
@@ -916,25 +888,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="B9" s="7">
+        <v>10008</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="b">
         <v>1</v>
@@ -942,25 +914,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10009</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7">
         <v>1050</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H10" s="9" t="b">
         <v>1</v>
@@ -968,25 +940,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7">
         <v>1200</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H11" s="9" t="b">
         <v>1</v>
@@ -1025,7 +997,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1037,377 +1009,377 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
+      <c r="A2" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="7">
-        <v>1111</v>
+        <v>11001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7">
+        <v>11002</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11003</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7">
+        <v>11004</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11005</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7">
+        <v>11006</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7">
+        <v>11007</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7">
+        <v>11008</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7">
+        <v>11009</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7">
+        <v>11010</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11011</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="7">
-        <v>1112</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="B13" s="7">
+        <v>11012</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="7">
-        <v>1113</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="7">
+        <v>11013</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="7">
-        <v>1114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1115</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1116</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B15" s="7">
+        <v>11014</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1117</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1119</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1120</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1121</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1122</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1123</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1124</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1430,7 +1402,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1446,7 +1418,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1458,195 +1430,195 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="10">
         <v>201</v>
       </c>
       <c r="B2" s="7">
-        <v>1111</v>
+        <v>12001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
+      <c r="A3" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="7">
-        <v>1112</v>
+        <v>12002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
+      <c r="A4" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="7">
-        <v>1113</v>
+        <v>12003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
+      <c r="A5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="7">
-        <v>1114</v>
+        <v>12004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
+      <c r="A6" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="7">
-        <v>1115</v>
+        <v>12005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
+      <c r="A7" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="7">
-        <v>1116</v>
+        <v>12006</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
+      <c r="A8" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="7">
-        <v>1117</v>
+        <v>12007</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
